--- a/model/Auswertung/uneinheitliches Layout/Ergebnis_Llama/results.xlsx
+++ b/model/Auswertung/uneinheitliches Layout/Ergebnis_Llama/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1074</v>
+        <v>1040</v>
       </c>
       <c r="B2" t="n">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0521</v>
+        <v>0.0308</v>
       </c>
       <c r="F2" t="n">
         <v>151</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1275</v>
+        <v>1259</v>
       </c>
       <c r="B3" t="n">
-        <v>1272</v>
+        <v>1256</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.0675</v>
       </c>
       <c r="F3" t="n">
         <v>154</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2048</v>
+        <v>2004</v>
       </c>
       <c r="B4" t="n">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="C4" t="n">
-        <v>1270</v>
+        <v>1252</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6201</v>
+        <v>0.6248</v>
       </c>
       <c r="F4" t="n">
         <v>324</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B5" t="n">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C5" t="n">
         <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1681</v>
+        <v>0.1585</v>
       </c>
       <c r="F5" t="n">
         <v>42</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1369</v>
+        <v>1256</v>
       </c>
       <c r="B6" t="n">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="C6" t="n">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1651</v>
+        <v>0.0852</v>
       </c>
       <c r="F6" t="n">
         <v>184</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="B7" t="n">
-        <v>749</v>
+        <v>730</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0371</v>
+        <v>0.0123</v>
       </c>
       <c r="F7" t="n">
         <v>104</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1135</v>
+        <v>1052</v>
       </c>
       <c r="B8" t="n">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C8" t="n">
-        <v>341</v>
+        <v>266</v>
       </c>
       <c r="D8" t="n">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3436</v>
+        <v>0.2586</v>
       </c>
       <c r="F8" t="n">
         <v>127</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1071</v>
+        <v>1023</v>
       </c>
       <c r="B9" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="C9" t="n">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1008</v>
+        <v>0.045</v>
       </c>
       <c r="F9" t="n">
         <v>127</v>
